--- a/Finflux Automation Excels/Client/4928-FLAT-DB-SAR-PartialPeriod-InitialBrokenPeriod-DistEqualyToAllInst-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4928-FLAT-DB-SAR-PartialPeriod-InitialBrokenPeriod-DistEqualyToAllInst-MakeRepayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t> </t>
   </si>
   <si>
-    <t>Interest</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>Interest(%)</t>
   </si>
 </sst>
 </file>
@@ -593,66 +593,68 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>14</v>
@@ -966,7 +968,7 @@
         <v>1776</v>
       </c>
       <c r="L8" s="8">
-        <v>1652.88</v>
+        <v>1651.89</v>
       </c>
       <c r="M8" s="9">
         <v>128.88999999999999</v>
@@ -979,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="9">
-        <v>123.12</v>
+        <v>124.11</v>
       </c>
     </row>
   </sheetData>
@@ -991,70 +993,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11">
         <v>42095</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1523.99</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1523.99</v>
+        <v>38</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1523</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1523</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -1066,21 +1070,21 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>123.12</v>
+        <v>124.11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11">
         <v>42078</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7">
         <v>1900</v>
@@ -1103,16 +1107,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="11">
         <v>42036</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7">
         <v>1900</v>
@@ -1135,16 +1139,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11">
         <v>42021</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="9">
         <v>108.89</v>
@@ -1167,16 +1171,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="11">
         <v>42019</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9">
         <v>700</v>
@@ -1199,16 +1203,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="11">
         <v>41988</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7">
         <v>1000</v>
@@ -1231,16 +1235,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11">
         <v>41974</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7">
         <v>1500</v>
@@ -1263,16 +1267,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="11">
         <v>41959</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="7">
         <v>1900</v>
@@ -1295,16 +1299,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="11">
         <v>41944</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7">
         <v>1776</v>
@@ -1327,16 +1331,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="11">
         <v>41897</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9">
         <v>200</v>
@@ -1359,16 +1363,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="11">
         <v>41897</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="7">
         <v>10000</v>
@@ -1705,7 +1709,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,7 +1739,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1523.99</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1755,19 +1759,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1792,14 +1797,14 @@
         <v>10000</v>
       </c>
       <c r="B2" s="8">
-        <v>9876.8799999999992</v>
+        <v>9875.89</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="9">
-        <v>123.12</v>
+        <v>124.11</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
